--- a/biology/Zoologie/Augustus_Addison_Gould/Augustus_Addison_Gould.xlsx
+++ b/biology/Zoologie/Augustus_Addison_Gould/Augustus_Addison_Gould.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustus Addison Gould est un conchyliologiste américain, né le 23 avril 1805 à New Ipswich (New Hampshire) et mort le 15 septembre 1866 à Boston.
 Il est le fils de Nathaiel Durant et de Sally Prichard Gould. Son père est un modeste fermier également graveur, musicien et professeur de musique. Dès son jeune âge, Augustus travaille à la ferme de son père et à quinze ans, il prend en charge l’exploitation familiale.
@@ -492,7 +504,7 @@
 Mais son œuvre la plus renommée est son catalogue (United States Exploring Expedition, vol. 12, Mollusca and Shells, 1852) décrivant les mollusques récoltés par Joseph Pitty Couthouy (1808-1864) durant son expédition de 1838 à 1842 conduite par Charles Wilkes (1798-1877). Gould y décrit 443 nouvelles espèces.
 À partir de 1857, il devient médecin au Massachusetts General Hospital, fonction qu'il conserve jusqu'en 1866. C'est également en 1857 que, afin de décrire les coquillages récoltés lors d'une expédition sur les côtes du Pacifique (1853-1855), Gould vient en Europe pour y étudier diverses collections. Il publie en 1852 son Otia Conchologica : Description of Shells and Mollusks, from 1839 to 1862 qui regroupe toutes les descriptions qu'il a faites par ailleurs.
 Très religieux, il est membre de l'église baptiste. Gould est le conchyliologiste américain le plus fameux de l'histoire. Il décrivit quelque 1 100 nouvelles espèces.
-Il est enterré au cimetière de Mount Auburn à Cambridge au Massachusetts[1].
+Il est enterré au cimetière de Mount Auburn à Cambridge au Massachusetts.
 </t>
         </is>
       </c>
